--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303976\eclipse-workspace\display-bookshelves\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D180D2-2247-42A9-9D87-BF5F1CB5E493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0B826-90FC-45A1-A926-C353F7D78253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid details" sheetId="1" r:id="rId1"/>
     <sheet name="Valid details" sheetId="2" r:id="rId2"/>
-    <sheet name="output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Recipent' Name</t>
   </si>
@@ -56,26 +55,32 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>recipent@email.com</t>
-  </si>
-  <si>
-    <t>YourName</t>
-  </si>
-  <si>
-    <t>your@email.com</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>youremail.com</t>
+    <t>recipent@valid.com</t>
+  </si>
+  <si>
+    <t>YourNameValid</t>
+  </si>
+  <si>
+    <t>your@valid.com</t>
+  </si>
+  <si>
+    <t>recipent@invalid.com</t>
+  </si>
+  <si>
+    <t>InvalidYourName</t>
+  </si>
+  <si>
+    <t>yourinvalidemail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +88,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,52 +412,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2">
         <v>9917923455</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>9917987659</v>
@@ -447,6 +479,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2A9F3986-4D1E-4A0E-9FCC-0200ED80408C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -456,34 +491,42 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -491,17 +534,17 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>9917923455</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F2">
         <v>9917987659</v>
@@ -514,18 +557,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EECB3C-D649-4E28-8F61-48C854A671F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E599803-9F62-4CA9-8E35-99BA5B89F691}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{A7E29015-7286-4F97-9B94-64B6BD69230F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>